--- a/public/sales_template.xlsx
+++ b/public/sales_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arieschen/Documents/Inventory Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arieschen/Desktop/product-master/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE8503-16BA-684D-877A-34094BBB0AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF4CE08-A2C8-AB41-9F06-C04B5A47FEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="2740" windowWidth="20480" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">sales id </t>
   </si>
@@ -48,18 +48,12 @@
   </si>
   <si>
     <t>units</t>
-  </si>
-  <si>
-    <t>sales date (YYYY/MM/DD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -107,13 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,18 +325,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -359,31 +349,25 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
